--- a/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/6_Bus_Transmission_Test_System.xlsx
+++ b/09_MPEC_Bidding_Diagonalization/MatlabCode/V04/Ali Data/6_Bus_Transmission_Test_System.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F2B26E-9B61-448F-ADC0-15E04991E48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32D3DDE1-1593-4ED2-9924-148858918532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4150,8 +4150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:BX43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AB2" sqref="AB2:AY10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4375,13 +4375,13 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.4759746136405741E-7</v>
       </c>
       <c r="V2">
         <v>0</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>9.2216349685259047E-6</v>
       </c>
       <c r="X2">
         <v>0</v>
@@ -4394,73 +4394,73 @@
       </c>
       <c r="AA2" s="5"/>
       <c r="AB2">
-        <v>1.19757588092305E-3</v>
+        <v>1.008198970224962E-6</v>
       </c>
       <c r="AC2">
-        <v>3.5766217873583299E-3</v>
+        <v>1.0720849944095399E-5</v>
       </c>
       <c r="AD2">
-        <v>5.5227062178014102E-3</v>
+        <v>1.8081302862409999E-4</v>
       </c>
       <c r="AE2">
-        <v>6.4492481634538896E-3</v>
+        <v>1.3076304866659999E-4</v>
       </c>
       <c r="AF2">
-        <v>8.1569512874680797E-3</v>
+        <v>8.3512276957446908E-5</v>
       </c>
       <c r="AG2">
-        <v>6.97658290295744E-3</v>
+        <v>4.9876650333333343E-5</v>
       </c>
       <c r="AH2">
-        <v>4.7132928127970901E-3</v>
+        <v>3.4145736080100001E-4</v>
       </c>
       <c r="AI2">
-        <v>3.1294813946389699E-3</v>
+        <v>1.5754861468574111E-5</v>
       </c>
       <c r="AJ2">
-        <v>1.6259032422135599E-3</v>
+        <v>8.9794103922705105E-6</v>
       </c>
       <c r="AK2">
-        <v>2.0054419537304398E-3</v>
+        <v>3.8361146847477213E-5</v>
       </c>
       <c r="AL2">
-        <v>2.2925852374414599E-3</v>
+        <v>7.496887878995822E-5</v>
       </c>
       <c r="AM2">
-        <v>2.4920024429613699E-3</v>
+        <v>1.888840796638E-4</v>
       </c>
       <c r="AN2">
-        <v>4.6277110542211099E-3</v>
+        <v>3.6054363148390001E-4</v>
       </c>
       <c r="AO2">
-        <v>9.53954440871475E-3</v>
+        <v>1.894992998768E-4</v>
       </c>
       <c r="AP2">
-        <v>7.9480504664894407E-3</v>
+        <v>4.0292292881470001E-4</v>
       </c>
       <c r="AQ2">
-        <v>6.1939945245258199E-3</v>
+        <v>3.3528228976706527E-5</v>
       </c>
       <c r="AR2">
-        <v>3.8222761889776299E-3</v>
+        <v>2.3036940360989999E-4</v>
       </c>
       <c r="AS2">
-        <v>1.9528841805468301E-3</v>
+        <v>7.7615059999990715E-6</v>
       </c>
       <c r="AT2">
-        <v>1.4485329157936601E-3</v>
+        <v>5.0909667106968648E-13</v>
       </c>
       <c r="AU2">
-        <v>1.3204977717735201E-4</v>
+        <v>4.2168834270928962E-6</v>
       </c>
       <c r="AV2">
-        <v>5.1900000000000004E-4</v>
+        <v>0</v>
       </c>
       <c r="AW2">
-        <v>5.25281017535053E-4</v>
-      </c>
-      <c r="AX2" s="4">
-        <v>5.6577852567435701E-5</v>
+        <v>1.1952607058085659E-5</v>
+      </c>
+      <c r="AX2">
+        <v>4.0044200907689856E-6</v>
       </c>
       <c r="AY2">
         <v>0</v>
@@ -4528,11 +4528,11 @@
       <c r="U3">
         <v>0</v>
       </c>
-      <c r="V3" s="4">
-        <v>9.3999999999999994E-5</v>
+      <c r="V3">
+        <v>0</v>
       </c>
       <c r="W3">
-        <v>2.5000000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="X3">
         <v>0</v>
@@ -4545,73 +4545,73 @@
       </c>
       <c r="AA3" s="5"/>
       <c r="AB3">
-        <v>2.5000000000000001E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AC3">
-        <v>5.3819999999999996E-3</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="AD3">
-        <v>3.8999999999999998E-3</v>
+        <v>1.2E-5</v>
       </c>
       <c r="AE3">
-        <v>6.1749999999999999E-3</v>
+        <v>4.3999999999999999E-5</v>
       </c>
       <c r="AF3">
-        <v>5.5370000000000003E-3</v>
+        <v>2.4000000000000001E-5</v>
       </c>
       <c r="AG3">
-        <v>4.3350000000000003E-3</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="AH3">
-        <v>1.9546000000000001E-2</v>
+        <v>9.3999999999999994E-5</v>
       </c>
       <c r="AI3">
-        <v>1.786E-3</v>
+        <v>3.2400000000000001E-4</v>
       </c>
       <c r="AJ3">
-        <v>9.7999999999999997E-4</v>
+        <v>2.05E-4</v>
       </c>
       <c r="AK3">
-        <v>1.475E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AL3">
-        <v>2.1299999999999999E-3</v>
+        <v>9.810000000000001E-4</v>
       </c>
       <c r="AM3">
-        <v>3.2520000000000001E-3</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="AN3">
-        <v>4.4019999999999997E-3</v>
+        <v>2.2000000000000001E-4</v>
       </c>
       <c r="AO3">
-        <v>6.4440000000000001E-3</v>
+        <v>1.4200000000000001E-4</v>
       </c>
       <c r="AP3">
-        <v>6.4219999999999998E-3</v>
+        <v>1.3300000000000001E-4</v>
       </c>
       <c r="AQ3">
-        <v>9.5799999999999998E-4</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="AR3">
-        <v>1.0961E-2</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="AS3">
-        <v>8.9599999999999999E-4</v>
+        <v>1.1E-5</v>
       </c>
       <c r="AT3">
-        <v>3.2200000000000002E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="AW3">
         <v>0</v>
       </c>
-      <c r="AX3" s="4">
-        <v>3.0000000000000001E-6</v>
+      <c r="AX3">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AY3">
         <v>0</v>
@@ -4751,8 +4751,8 @@
       <c r="U4">
         <v>0</v>
       </c>
-      <c r="V4" s="4">
-        <v>9.2999999999998195E-5</v>
+      <c r="V4">
+        <v>0</v>
       </c>
       <c r="W4">
         <v>0</v>
@@ -4768,73 +4768,73 @@
       </c>
       <c r="AA4" s="5"/>
       <c r="AB4">
-        <v>4.5300000000000001E-4</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AC4">
-        <v>7.4310000000000001E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="AD4">
-        <v>4.6010000000000001E-3</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AE4">
-        <v>5.0390000000000001E-3</v>
+        <v>1.2E-5</v>
       </c>
       <c r="AF4">
-        <v>6.3420000000000004E-3</v>
+        <v>2.9E-5</v>
       </c>
       <c r="AG4">
-        <v>5.7910000000000001E-3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AH4">
-        <v>4.8789999999999997E-3</v>
+        <v>4.3899999999999999E-4</v>
       </c>
       <c r="AI4">
-        <v>2.503E-3</v>
+        <v>2.1900000000000001E-4</v>
       </c>
       <c r="AJ4">
-        <v>1.176E-3</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="AK4">
-        <v>5.3119999999999999E-3</v>
+        <v>3.0000000000000001E-5</v>
       </c>
       <c r="AL4">
-        <v>1.7949999999999999E-3</v>
+        <v>1.7000000000000001E-4</v>
       </c>
       <c r="AM4">
-        <v>2.3509999999999998E-3</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="AN4">
-        <v>4.947E-3</v>
+        <v>5.3300000000000005E-4</v>
       </c>
       <c r="AO4">
-        <v>6.8700000000000002E-3</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="AP4">
-        <v>6.4920000000000004E-3</v>
+        <v>4.2900000000000002E-4</v>
       </c>
       <c r="AQ4">
-        <v>4.5389999999999996E-3</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="AR4">
-        <v>1.2038999999999999E-2</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AS4">
-        <v>9.4300000000000004E-4</v>
+        <v>1.12E-4</v>
       </c>
       <c r="AT4">
-        <v>4.6000000000000001E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="AW4">
-        <v>0</v>
-      </c>
-      <c r="AX4" s="4">
-        <v>2.1999999999999999E-5</v>
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
       </c>
       <c r="AY4">
         <v>0</v>
@@ -4975,13 +4975,13 @@
         <v>0</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>9.2168834270929008E-6</v>
       </c>
       <c r="W5">
-        <v>2.6899999999999998E-4</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1.75E-4</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -4991,73 +4991,73 @@
       </c>
       <c r="AA5" s="5"/>
       <c r="AB5">
-        <v>5.5599999999999996E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AC5">
-        <v>5.5929999999999999E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="AD5">
-        <v>4.0990000000000002E-3</v>
+        <v>1.0900000000000001E-4</v>
       </c>
       <c r="AE5">
-        <v>5.182E-3</v>
+        <v>3.4499999999999998E-4</v>
       </c>
       <c r="AF5">
-        <v>5.2180000000000004E-3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AG5">
-        <v>4.0070000000000001E-3</v>
+        <v>1.17E-4</v>
       </c>
       <c r="AH5">
-        <v>3.3470000000000001E-3</v>
+        <v>1.3799999999999999E-4</v>
       </c>
       <c r="AI5">
-        <v>2.5660000000000001E-3</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AJ5">
-        <v>1.3680000000000001E-3</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="AK5">
-        <v>1.364E-3</v>
+        <v>5.4100000000000003E-4</v>
       </c>
       <c r="AL5">
-        <v>2.0820000000000001E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AM5">
-        <v>2.653E-3</v>
+        <v>5.1999999999999997E-5</v>
       </c>
       <c r="AN5">
-        <v>5.1409999999999997E-3</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="AO5">
-        <v>7.7669999999999996E-3</v>
+        <v>4.66E-4</v>
       </c>
       <c r="AP5">
-        <v>6.0639999999999999E-3</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="AQ5">
-        <v>1.5169E-2</v>
+        <v>2.2499999999999999E-4</v>
       </c>
       <c r="AR5">
-        <v>1.0078E-2</v>
+        <v>1.2300000000000001E-4</v>
       </c>
       <c r="AS5">
-        <v>8.4699999999999999E-4</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="AT5">
-        <v>2.8600000000000001E-4</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="AU5">
-        <v>2.32E-3</v>
+        <v>0</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="AW5">
         <v>0</v>
       </c>
-      <c r="AX5" s="4">
-        <v>3.9999999999999998E-6</v>
+      <c r="AX5">
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="AY5">
         <v>0</v>
@@ -5197,14 +5197,14 @@
       <c r="U6">
         <v>0</v>
       </c>
-      <c r="V6" s="4">
-        <v>9.7999999999999997E-5</v>
+      <c r="V6">
+        <v>0</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>1.3228101753505299E-4</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -5213,74 +5213,74 @@
         <v>0</v>
       </c>
       <c r="AA6" s="5"/>
-      <c r="AB6" s="4">
-        <v>8.3999999999999995E-5</v>
+      <c r="AB6">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AC6">
-        <v>5.0099999999999997E-3</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="AD6">
-        <v>6.8400000000000004E-4</v>
+        <v>1.16E-4</v>
       </c>
       <c r="AE6">
-        <v>1.168E-3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AF6">
-        <v>1.771E-3</v>
+        <v>1.8E-5</v>
       </c>
       <c r="AG6">
-        <v>1.9512000000000002E-2</v>
+        <v>7.1000000000000005E-5</v>
       </c>
       <c r="AH6">
-        <v>1.6958000000000001E-2</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="AI6">
-        <v>1.908E-3</v>
+        <v>3.4299999999999999E-4</v>
       </c>
       <c r="AJ6">
-        <v>8.1400000000000005E-4</v>
+        <v>2.4800000000000001E-4</v>
       </c>
       <c r="AK6">
-        <v>6.8300000000000001E-4</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AL6">
-        <v>1.0460000000000001E-3</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AM6">
-        <v>1.7210000000000001E-3</v>
+        <v>4.1E-5</v>
       </c>
       <c r="AN6">
-        <v>2.6069999999999999E-3</v>
+        <v>4.4299999999999998E-4</v>
       </c>
       <c r="AO6">
-        <v>2.7989999999999998E-3</v>
+        <v>4.8500000000000003E-4</v>
       </c>
       <c r="AP6">
-        <v>1.8240000000000001E-3</v>
+        <v>9.0000000000000006E-5</v>
       </c>
       <c r="AQ6">
-        <v>1.6239E-2</v>
+        <v>1.16E-4</v>
       </c>
       <c r="AR6">
-        <v>1.0314E-2</v>
+        <v>6.0999999999999999E-5</v>
       </c>
       <c r="AS6">
-        <v>4.2099999999999999E-4</v>
+        <v>1.22E-4</v>
       </c>
       <c r="AT6">
-        <v>1.18E-4</v>
+        <v>3.9999999999999998E-6</v>
       </c>
       <c r="AU6">
         <v>0</v>
       </c>
       <c r="AV6">
-        <v>0</v>
+        <v>2.3E-5</v>
       </c>
       <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6" s="4">
-        <v>1.7E-5</v>
+        <v>4.1E-5</v>
+      </c>
+      <c r="AX6">
+        <v>0</v>
       </c>
       <c r="AY6">
         <v>0</v>
@@ -5420,8 +5420,8 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7" s="4">
-        <v>2.3E-5</v>
+      <c r="V7">
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
@@ -5437,73 +5437,73 @@
       </c>
       <c r="AA7" s="5"/>
       <c r="AB7">
-        <v>2.52E-4</v>
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AC7">
-        <v>5.2199999999999998E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="AD7">
-        <v>5.176E-3</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AE7">
-        <v>5.437E-3</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AF7">
-        <v>6.1729999999999997E-3</v>
+        <v>3.0899999999999998E-4</v>
       </c>
       <c r="AG7">
-        <v>1.7600000000000001E-3</v>
+        <v>2.5099999999999998E-4</v>
       </c>
       <c r="AH7">
-        <v>4.0489999999999996E-3</v>
+        <v>1.84E-4</v>
       </c>
       <c r="AI7">
-        <v>1.8309999999999999E-3</v>
+        <v>1.16E-4</v>
       </c>
       <c r="AJ7">
-        <v>1.6479999999999999E-3</v>
+        <v>1.1E-4</v>
       </c>
       <c r="AK7">
-        <v>2.6480000000000002E-3</v>
+        <v>4.0000000000000003E-5</v>
       </c>
       <c r="AL7">
-        <v>1.787E-3</v>
+        <v>4.2499999999999998E-4</v>
       </c>
       <c r="AM7">
-        <v>2.274E-3</v>
+        <v>6.3E-5</v>
       </c>
       <c r="AN7">
-        <v>5.9480000000000002E-3</v>
+        <v>1.7699999999999999E-4</v>
       </c>
       <c r="AO7">
-        <v>7.0619999999999997E-3</v>
+        <v>3.4900000000000003E-4</v>
       </c>
       <c r="AP7">
-        <v>6.1960000000000001E-3</v>
+        <v>1.83E-4</v>
       </c>
       <c r="AQ7">
-        <v>1.4982000000000001E-2</v>
+        <v>4.0700000000000003E-4</v>
       </c>
       <c r="AR7">
-        <v>1.2259000000000001E-2</v>
+        <v>2.3E-5</v>
       </c>
       <c r="AS7">
-        <v>6.7500000000000004E-4</v>
-      </c>
-      <c r="AT7" s="4">
-        <v>7.4999999999999993E-5</v>
+        <v>1.26E-4</v>
+      </c>
+      <c r="AT7">
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="AU7">
         <v>0</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>2.0000000000000002E-5</v>
       </c>
       <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="4">
-        <v>1.1E-5</v>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="AX7">
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="AY7">
         <v>0</v>
@@ -5644,77 +5644,77 @@
         <v>0</v>
       </c>
       <c r="V8">
-        <v>1.85E-4</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>2.1799999999999901E-4</v>
+        <v>0</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="Z8">
         <v>0</v>
       </c>
       <c r="AA8" s="5"/>
       <c r="AB8">
-        <v>4.2700000000000002E-4</v>
+        <v>0</v>
       </c>
       <c r="AC8">
-        <v>2.519E-3</v>
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="AD8">
-        <v>4.614E-3</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="AE8">
-        <v>5.5830000000000003E-3</v>
+        <v>3.4999999999999997E-5</v>
       </c>
       <c r="AF8">
-        <v>4.6810000000000003E-3</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AG8">
-        <v>3.741E-3</v>
+        <v>2.6400000000000002E-4</v>
       </c>
       <c r="AH8">
-        <v>1.984E-2</v>
+        <v>2.6699999999999998E-4</v>
       </c>
       <c r="AI8">
-        <v>2.3410000000000002E-3</v>
+        <v>1.9699999999999999E-4</v>
       </c>
       <c r="AJ8">
-        <v>1.2999999999999999E-3</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="AK8">
-        <v>1.4909999999999999E-3</v>
+        <v>2.5999999999999998E-5</v>
       </c>
       <c r="AL8">
-        <v>1.836E-3</v>
+        <v>7.8799999999999996E-4</v>
       </c>
       <c r="AM8">
-        <v>3.189E-3</v>
+        <v>8.2999999999999998E-5</v>
       </c>
       <c r="AN8">
-        <v>4.6699999999999997E-3</v>
+        <v>8.2000000000000001E-5</v>
       </c>
       <c r="AO8">
-        <v>5.2529999999999999E-3</v>
+        <v>6.3E-5</v>
       </c>
       <c r="AP8">
-        <v>4.8300000000000001E-3</v>
+        <v>1.12E-4</v>
       </c>
       <c r="AQ8">
-        <v>3.81E-3</v>
+        <v>5.8999999999999998E-5</v>
       </c>
       <c r="AR8">
-        <v>1.1436999999999999E-2</v>
+        <v>2.1599999999999999E-4</v>
       </c>
       <c r="AS8">
-        <v>8.0599999999999997E-4</v>
+        <v>4.0999999999999999E-4</v>
       </c>
       <c r="AT8">
-        <v>3.0699999999999998E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="AU8">
         <v>0</v>
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="4">
-        <v>7.9999999999999996E-6</v>
+        <v>3.9999999999999998E-6</v>
+      </c>
+      <c r="AX8">
+        <v>0</v>
       </c>
       <c r="AY8">
         <v>0</v>
@@ -5866,8 +5866,8 @@
       <c r="U9">
         <v>0</v>
       </c>
-      <c r="V9" s="4">
-        <v>8.4999999999998E-5</v>
+      <c r="V9">
+        <v>0</v>
       </c>
       <c r="W9">
         <v>0</v>
@@ -5882,74 +5882,74 @@
         <v>0</v>
       </c>
       <c r="AA9" s="5"/>
-      <c r="AB9" s="4">
-        <v>9.5000000000000005E-5</v>
+      <c r="AB9">
+        <v>3.0000000000000001E-6</v>
       </c>
       <c r="AC9">
-        <v>4.1380000000000002E-3</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>3.77E-4</v>
+        <v>1.9000000000000001E-5</v>
       </c>
       <c r="AE9">
-        <v>4.0099999999999999E-4</v>
+        <v>1.3999999999999999E-4</v>
       </c>
       <c r="AF9">
-        <v>9.1799999999999998E-4</v>
+        <v>1.8200000000000001E-4</v>
       </c>
       <c r="AG9">
-        <v>1.8291000000000002E-2</v>
+        <v>1.13E-4</v>
       </c>
       <c r="AH9">
-        <v>1.5955E-2</v>
+        <v>1.7E-5</v>
       </c>
       <c r="AI9">
-        <v>7.9600000000000005E-4</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AJ9">
-        <v>5.3300000000000005E-4</v>
+        <v>7.9999999999999996E-6</v>
       </c>
       <c r="AK9">
-        <v>2.0355000000000002E-2</v>
+        <v>2.0999999999999999E-5</v>
       </c>
       <c r="AL9">
-        <v>3.3599999999999998E-4</v>
+        <v>2.5500000000000002E-4</v>
       </c>
       <c r="AM9">
-        <v>8.5800000000000004E-4</v>
+        <v>5.7000000000000003E-5</v>
       </c>
       <c r="AN9">
-        <v>1.238E-3</v>
+        <v>6.7900000000000002E-4</v>
       </c>
       <c r="AO9">
-        <v>1.624E-3</v>
+        <v>3.7199999999999999E-4</v>
       </c>
       <c r="AP9">
-        <v>1.8309999999999999E-3</v>
+        <v>1.44E-4</v>
       </c>
       <c r="AQ9">
-        <v>7.9640000000000006E-3</v>
+        <v>1.18E-4</v>
       </c>
       <c r="AR9">
-        <v>7.5490000000000002E-3</v>
+        <v>1.1E-4</v>
       </c>
       <c r="AS9">
-        <v>5.8900000000000001E-4</v>
+        <v>1.9799999999999999E-4</v>
       </c>
       <c r="AT9">
-        <v>1.84E-4</v>
+        <v>0</v>
       </c>
       <c r="AU9">
         <v>0</v>
       </c>
       <c r="AV9">
-        <v>0</v>
+        <v>2.3E-5</v>
       </c>
       <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="4">
-        <v>1.2E-5</v>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="AX9">
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="AY9">
         <v>0</v>
@@ -6090,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="V10">
-        <v>1.17E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="W10">
         <v>0</v>
@@ -6099,80 +6099,80 @@
         <v>0</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>9.9999999999999995E-7</v>
       </c>
       <c r="Z10">
         <v>0</v>
       </c>
       <c r="AA10" s="5"/>
       <c r="AB10">
-        <v>9.01E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="AC10">
-        <v>3.0920000000000001E-3</v>
+        <v>1.2999999999999999E-5</v>
       </c>
       <c r="AD10">
-        <v>4.0679999999999996E-3</v>
+        <v>1.5E-5</v>
       </c>
       <c r="AE10">
-        <v>4.4489999999999998E-3</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AF10">
-        <v>5.287E-3</v>
+        <v>3.1000000000000001E-5</v>
       </c>
       <c r="AG10">
-        <v>6.7340000000000004E-3</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="AH10">
-        <v>2.892E-3</v>
+        <v>1.15E-4</v>
       </c>
       <c r="AI10">
-        <v>2.464E-3</v>
+        <v>1.5999999999999999E-5</v>
       </c>
       <c r="AJ10">
-        <v>1.2440000000000001E-3</v>
+        <v>4.8999999999999998E-4</v>
       </c>
       <c r="AK10">
-        <v>1.6720000000000001E-3</v>
+        <v>2.22E-4</v>
       </c>
       <c r="AL10">
-        <v>1.9940000000000001E-3</v>
+        <v>1.92E-4</v>
       </c>
       <c r="AM10">
-        <v>2.4109999999999999E-3</v>
+        <v>4.8999999999999998E-5</v>
       </c>
       <c r="AN10">
-        <v>5.5960000000000003E-3</v>
+        <v>4.08E-4</v>
       </c>
       <c r="AO10">
-        <v>7.7790000000000003E-3</v>
+        <v>6.6000000000000005E-5</v>
       </c>
       <c r="AP10">
-        <v>8.8079999999999999E-3</v>
+        <v>2.0900000000000001E-4</v>
       </c>
       <c r="AQ10">
-        <v>1.6230999999999999E-2</v>
+        <v>4.17E-4</v>
       </c>
       <c r="AR10">
-        <v>9.0550000000000005E-3</v>
+        <v>1.4E-5</v>
       </c>
       <c r="AS10">
-        <v>5.2899999999999996E-4</v>
+        <v>6.9999999999999999E-6</v>
       </c>
       <c r="AT10">
-        <v>1.8000000000000001E-4</v>
+        <v>1.9999999999999999E-6</v>
       </c>
       <c r="AU10">
         <v>0</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>2.3E-5</v>
       </c>
       <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10" s="4">
-        <v>1.5E-5</v>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="AX10">
+        <v>0</v>
       </c>
       <c r="AY10">
         <v>0</v>
